--- a/biology/Zoologie/Bolostromus_riveti/Bolostromus_riveti.xlsx
+++ b/biology/Zoologie/Bolostromus_riveti/Bolostromus_riveti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolostromus riveti est une espèce d'araignées mygalomorphes de la famille des Cyrtaucheniidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolostromus riveti est une espèce d'araignées mygalomorphes de la famille des Cyrtaucheniidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Équateur[1]. Elle se rencontre dans les provinces de Chimborazo et de Pichincha[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Équateur. Elle se rencontre dans les provinces de Chimborazo et de Pichincha.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 12 à 14 mm[3].
-Le mâle décrit par Dupérré en 2023 mesure 7,69 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 12 à 14 mm.
+Le mâle décrit par Dupérré en 2023 mesure 7,69 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Paul Rivet[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Paul Rivet.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1903 : « Études arachnologiques. 34e Mémoire. LVI. Descriptions de deux espèces nouvelles de la famille des Avicularides recueillis dans l'Ecuador par M. le Dr Rivet et faisant partie des collections du Muséum de Paris. » Annales de la Société Entomologique de France, vol. 72, p. 314 (texte intégral).</t>
         </is>
